--- a/src/main/resources/97-mall-swarm/mall-portal_attribute.xlsx
+++ b/src/main/resources/97-mall-swarm/mall-portal_attribute.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="511">
   <si>
     <t>类名</t>
   </si>
@@ -1516,6 +1516,12 @@
   </si>
   <si>
     <t>com.macro.mall.portal.controller.UmsMemberReceiveAddressController</t>
+  </si>
+  <si>
+    <t>update(java.lang.Long,com.macro.mall.model.UmsMemberReceiveAddress)</t>
+  </si>
+  <si>
+    <t>java.lang.Long,com.macro.mall.model.UmsMemberReceiveAddress</t>
   </si>
   <si>
     <t>com.macro.mall.portal.controller.OmsPortalOrderReturnApplyController</t>
@@ -7796,10 +7802,10 @@
         <v>500</v>
       </c>
       <c r="B27" t="s">
-        <v>323</v>
+        <v>501</v>
       </c>
       <c r="C27" t="s">
-        <v>304</v>
+        <v>502</v>
       </c>
       <c r="D27" t="s">
         <v>493</v>
@@ -7878,7 +7884,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B32" t="s">
         <v>401</v>
@@ -7895,7 +7901,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B33" t="s">
         <v>94</v>
@@ -7912,7 +7918,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B34" t="s">
         <v>46</v>
@@ -7929,10 +7935,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B35" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C35" t="s">
         <v>18</v>
@@ -7946,7 +7952,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B36" t="s">
         <v>444</v>
@@ -7963,7 +7969,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B37" t="s">
         <v>102</v>
@@ -7980,7 +7986,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B38" t="s">
         <v>61</v>
@@ -7997,7 +8003,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B39" t="s">
         <v>262</v>
@@ -8014,7 +8020,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B40" t="s">
         <v>386</v>
@@ -8031,7 +8037,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B41" t="s">
         <v>329</v>
@@ -8048,7 +8054,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B42" t="s">
         <v>27</v>
@@ -8065,10 +8071,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B43" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -8082,7 +8088,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B44" t="s">
         <v>55</v>
@@ -8099,7 +8105,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B45" t="s">
         <v>57</v>
@@ -8116,7 +8122,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B46" t="s">
         <v>120</v>
@@ -8133,7 +8139,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B47" t="s">
         <v>249</v>
@@ -8150,7 +8156,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B48" t="s">
         <v>89</v>
@@ -8167,7 +8173,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B49" t="s">
         <v>46</v>
@@ -8184,7 +8190,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B50" t="s">
         <v>448</v>
@@ -8201,7 +8207,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B51" t="s">
         <v>205</v>
@@ -8218,7 +8224,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B52" t="s">
         <v>188</v>
@@ -8235,7 +8241,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B53" t="s">
         <v>310</v>
@@ -8252,7 +8258,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B54" t="s">
         <v>448</v>
@@ -8269,7 +8275,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B55" t="s">
         <v>233</v>
@@ -8286,7 +8292,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B56" t="s">
         <v>112</v>
@@ -8303,7 +8309,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B57" t="s">
         <v>310</v>
@@ -8320,7 +8326,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B58" t="s">
         <v>46</v>
@@ -8337,7 +8343,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B59" t="s">
         <v>448</v>
@@ -8354,7 +8360,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B60" t="s">
         <v>110</v>
@@ -8371,7 +8377,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B61" t="s">
         <v>188</v>
@@ -8388,7 +8394,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B62" t="s">
         <v>310</v>
